--- a/exportação_unificada.xlsx
+++ b/exportação_unificada.xlsx
@@ -10,42 +10,58 @@
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
     <sheet name="Impostos Retidos" sheetId="2" r:id="rId2"/>
     <sheet name="Retenções Contratuais" sheetId="3" r:id="rId3"/>
+    <sheet name="Devoluções" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="99">
+  <si>
+    <t>CÓD</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Emissão</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Nº Nota Fiscal</t>
+  </si>
   <si>
     <t>Prestador</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Nº Nota Fiscal</t>
-  </si>
-  <si>
-    <t>Emissão</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>CÓD</t>
-  </si>
-  <si>
-    <t>Débito</t>
-  </si>
-  <si>
-    <t>Crédito</t>
-  </si>
-  <si>
-    <t>Histórico</t>
-  </si>
-  <si>
-    <t>H1</t>
+    <t>2.01.02.01.0001</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>NFE</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Nº</t>
   </si>
   <si>
     <t>Concrétilo Solutions</t>
@@ -252,18 +268,6 @@
     <t>BARBI ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>NFS</t>
-  </si>
-  <si>
-    <t>NFE</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>2.01.02.01.0001</t>
-  </si>
-  <si>
     <t>1.02.04.02.001</t>
   </si>
   <si>
@@ -286,6 +290,30 @@
   </si>
   <si>
     <t xml:space="preserve">ISS S/ </t>
+  </si>
+  <si>
+    <t>RETENÇÃO CONTRATUAL S/</t>
+  </si>
+  <si>
+    <t>Natureza Da OP.</t>
+  </si>
+  <si>
+    <t>DEVOLUÇAO</t>
+  </si>
+  <si>
+    <t>REMESSA</t>
+  </si>
+  <si>
+    <t>DOAÇAO</t>
+  </si>
+  <si>
+    <t>LOCAÇAO</t>
+  </si>
+  <si>
+    <t>RETORNO DE LOCAÇAO</t>
+  </si>
+  <si>
+    <t>S/</t>
   </si>
 </sst>
 </file>
@@ -689,194 +717,242 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>9874</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>45155</v>
       </c>
       <c r="F2">
         <v>1601</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>9874</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>953</v>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>45163</v>
       </c>
       <c r="F3">
         <v>38930.06</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>953</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>48842</v>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>45166</v>
       </c>
       <c r="F4">
         <v>14313</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>48842</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>45170</v>
       </c>
       <c r="F5">
         <v>10731.29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>61</v>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>45170</v>
       </c>
       <c r="F6">
         <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>813</v>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>45170</v>
       </c>
       <c r="F7">
         <v>712.8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>813</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8">
-        <v>1646</v>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>45170</v>
       </c>
       <c r="F8">
         <v>3477</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>1646</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9">
-        <v>2741</v>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>45170</v>
       </c>
       <c r="F9">
         <v>495</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>2741</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10">
-        <v>3360</v>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>45170</v>
       </c>
       <c r="F10">
         <v>49.98</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>3360</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11">
-        <v>3367</v>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>45170</v>
@@ -884,19 +960,25 @@
       <c r="F11">
         <v>521.22</v>
       </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>3367</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12">
-        <v>7555</v>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>45170</v>
@@ -904,19 +986,25 @@
       <c r="F12">
         <v>680</v>
       </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>7555</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13">
-        <v>8313</v>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>45170</v>
@@ -924,39 +1012,51 @@
       <c r="F13">
         <v>1601</v>
       </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>8313</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14">
-        <v>9411</v>
+      <c r="D14" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>45170</v>
       </c>
       <c r="F14">
         <v>471.75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>9411</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15">
-        <v>9415</v>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>45170</v>
@@ -964,19 +1064,25 @@
       <c r="F15">
         <v>464.5</v>
       </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>9415</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>47054</v>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>45170</v>
@@ -984,19 +1090,25 @@
       <c r="F16">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>47054</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>185799</v>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>45170</v>
@@ -1004,19 +1116,25 @@
       <c r="F17">
         <v>71758.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>185799</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>267385</v>
+      <c r="D18" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>45170</v>
@@ -1024,19 +1142,25 @@
       <c r="F18">
         <v>3054.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>267385</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>284121</v>
+      <c r="D19" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>45170</v>
@@ -1044,19 +1168,25 @@
       <c r="F19">
         <v>10500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>284121</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20">
-        <v>2392738</v>
+      <c r="D20" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>45170</v>
@@ -1064,19 +1194,25 @@
       <c r="F20">
         <v>62433.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>2392738</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>511</v>
+      <c r="D21" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>45170</v>
@@ -1084,19 +1220,25 @@
       <c r="F21">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>511</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>541</v>
+      <c r="D22" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>45173</v>
@@ -1104,19 +1246,25 @@
       <c r="F22">
         <v>5000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>541</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>772</v>
+      <c r="D23" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>45173</v>
@@ -1124,19 +1272,25 @@
       <c r="F23">
         <v>2100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>772</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24">
-        <v>1005</v>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>45173</v>
@@ -1144,19 +1298,25 @@
       <c r="F24">
         <v>7800</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>1005</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25">
-        <v>1459</v>
+      <c r="D25" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>45173</v>
@@ -1164,19 +1324,25 @@
       <c r="F25">
         <v>725.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>1459</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>1819</v>
+      <c r="D26" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>45173</v>
@@ -1184,19 +1350,25 @@
       <c r="F26">
         <v>900</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>1819</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27">
-        <v>3932</v>
+      <c r="D27" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>45173</v>
@@ -1204,19 +1376,25 @@
       <c r="F27">
         <v>920</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>3932</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28">
-        <v>6684</v>
+      <c r="D28" t="s">
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>45173</v>
@@ -1224,19 +1402,25 @@
       <c r="F28">
         <v>4752</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>6684</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29">
-        <v>178095</v>
+      <c r="D29" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>45173</v>
@@ -1244,19 +1428,25 @@
       <c r="F29">
         <v>77672.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>178095</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30">
-        <v>204</v>
+      <c r="D30" t="s">
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>45173</v>
@@ -1264,19 +1454,25 @@
       <c r="F30">
         <v>877.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>244</v>
+      <c r="D31" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>45174</v>
@@ -1284,19 +1480,25 @@
       <c r="F31">
         <v>3245.52</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32">
-        <v>594</v>
+      <c r="D32" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="2">
         <v>45174</v>
@@ -1304,19 +1506,25 @@
       <c r="F32">
         <v>627.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>594</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>769</v>
+      <c r="D33" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="2">
         <v>45174</v>
@@ -1324,19 +1532,25 @@
       <c r="F33">
         <v>557.4400000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>769</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>774</v>
+      <c r="D34" t="s">
+        <v>10</v>
       </c>
       <c r="E34" s="2">
         <v>45174</v>
@@ -1344,19 +1558,25 @@
       <c r="F34">
         <v>4250.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>774</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35">
-        <v>706</v>
+      <c r="D35" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="2">
         <v>45174</v>
@@ -1364,19 +1584,25 @@
       <c r="F35">
         <v>4250.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>706</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36">
-        <v>1007</v>
+      <c r="D36" t="s">
+        <v>10</v>
       </c>
       <c r="E36" s="2">
         <v>45174</v>
@@ -1384,19 +1610,25 @@
       <c r="F36">
         <v>1321.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>1007</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37">
-        <v>15516</v>
+      <c r="D37" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>45174</v>
@@ -1404,19 +1636,25 @@
       <c r="F37">
         <v>7520</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>15516</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38">
-        <v>1611</v>
+      <c r="D38" t="s">
+        <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>45174</v>
@@ -1424,19 +1662,25 @@
       <c r="F38">
         <v>407.85</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>1611</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39">
-        <v>17188</v>
+      <c r="D39" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>45175</v>
@@ -1444,19 +1688,25 @@
       <c r="F39">
         <v>1235.85</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>17188</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40">
-        <v>20893</v>
+      <c r="D40" t="s">
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>45175</v>
@@ -1464,19 +1714,25 @@
       <c r="F40">
         <v>756.51</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>20893</v>
+      </c>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41">
-        <v>1045824</v>
+      <c r="D41" t="s">
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>45175</v>
@@ -1484,19 +1740,25 @@
       <c r="F41">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>1045824</v>
+      </c>
+      <c r="K41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42">
-        <v>1046158</v>
+      <c r="D42" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>45175</v>
@@ -1504,19 +1766,25 @@
       <c r="F42">
         <v>4663.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>1046158</v>
+      </c>
+      <c r="K42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43">
-        <v>27155</v>
+      <c r="D43" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>45175</v>
@@ -1524,19 +1792,25 @@
       <c r="F43">
         <v>7031.96</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>27155</v>
+      </c>
+      <c r="K43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44">
-        <v>7775</v>
+      <c r="D44" t="s">
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>45177</v>
@@ -1544,19 +1818,25 @@
       <c r="F44">
         <v>585</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>7775</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45">
-        <v>722</v>
+      <c r="D45" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>45178</v>
@@ -1564,19 +1844,25 @@
       <c r="F45">
         <v>938</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>722</v>
+      </c>
+      <c r="K45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46">
-        <v>782</v>
+      <c r="D46" t="s">
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>45180</v>
@@ -1584,19 +1870,25 @@
       <c r="F46">
         <v>39691.42</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>782</v>
+      </c>
+      <c r="K46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47">
-        <v>2497</v>
+      <c r="D47" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>45180</v>
@@ -1604,19 +1896,25 @@
       <c r="F47">
         <v>2661.15</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>2497</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48">
-        <v>3286</v>
+      <c r="D48" t="s">
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>45180</v>
@@ -1624,19 +1922,25 @@
       <c r="F48">
         <v>909</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>3286</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49">
-        <v>5110</v>
+      <c r="D49" t="s">
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>45180</v>
@@ -1644,19 +1948,25 @@
       <c r="F49">
         <v>60750</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>5110</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50">
-        <v>5111</v>
+      <c r="D50" t="s">
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <v>45180</v>
@@ -1664,19 +1974,25 @@
       <c r="F50">
         <v>5800</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>5111</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51">
-        <v>607719</v>
+      <c r="D51" t="s">
+        <v>10</v>
       </c>
       <c r="E51" s="2">
         <v>45180</v>
@@ -1684,19 +2000,25 @@
       <c r="F51">
         <v>24527.69</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>607719</v>
+      </c>
+      <c r="K51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52">
-        <v>70</v>
+      <c r="D52" t="s">
+        <v>10</v>
       </c>
       <c r="E52" s="2">
         <v>45180</v>
@@ -1704,19 +2026,25 @@
       <c r="F52">
         <v>1174.64</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>70</v>
+      </c>
+      <c r="K52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53">
-        <v>15941</v>
+      <c r="D53" t="s">
+        <v>10</v>
       </c>
       <c r="E53" s="2">
         <v>45181</v>
@@ -1724,19 +2052,25 @@
       <c r="F53">
         <v>130262.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>15941</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54">
-        <v>55286</v>
+      <c r="D54" t="s">
+        <v>10</v>
       </c>
       <c r="E54" s="2">
         <v>45181</v>
@@ -1744,19 +2078,25 @@
       <c r="F54">
         <v>412.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>55286</v>
+      </c>
+      <c r="K54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55">
-        <v>450654</v>
+      <c r="D55" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="2">
         <v>45181</v>
@@ -1764,19 +2104,25 @@
       <c r="F55">
         <v>2549.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>450654</v>
+      </c>
+      <c r="K55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56">
-        <v>107</v>
+      <c r="D56" t="s">
+        <v>10</v>
       </c>
       <c r="E56" s="2">
         <v>45181</v>
@@ -1784,19 +2130,25 @@
       <c r="F56">
         <v>277.89</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <v>107</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57">
-        <v>254</v>
+      <c r="D57" t="s">
+        <v>10</v>
       </c>
       <c r="E57" s="2">
         <v>45182</v>
@@ -1804,19 +2156,25 @@
       <c r="F57">
         <v>34750</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>254</v>
+      </c>
+      <c r="K57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58">
-        <v>18799</v>
+      <c r="D58" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="2">
         <v>45182</v>
@@ -1824,19 +2182,25 @@
       <c r="F58">
         <v>27186.67</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <v>18799</v>
+      </c>
+      <c r="K58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59">
-        <v>34850</v>
+      <c r="D59" t="s">
+        <v>10</v>
       </c>
       <c r="E59" s="2">
         <v>45182</v>
@@ -1844,19 +2208,25 @@
       <c r="F59">
         <v>5400.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <v>34850</v>
+      </c>
+      <c r="K59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60">
-        <v>45523</v>
+      <c r="D60" t="s">
+        <v>10</v>
       </c>
       <c r="E60" s="2">
         <v>45182</v>
@@ -1864,19 +2234,25 @@
       <c r="F60">
         <v>18541.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <v>45523</v>
+      </c>
+      <c r="K60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61">
-        <v>15</v>
+      <c r="D61" t="s">
+        <v>10</v>
       </c>
       <c r="E61" s="2">
         <v>45182</v>
@@ -1884,19 +2260,25 @@
       <c r="F61">
         <v>36334.77</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62">
-        <v>16</v>
+      <c r="D62" t="s">
+        <v>10</v>
       </c>
       <c r="E62" s="2">
         <v>45183</v>
@@ -1904,19 +2286,25 @@
       <c r="F62">
         <v>1875</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63">
-        <v>352</v>
+      <c r="D63" t="s">
+        <v>10</v>
       </c>
       <c r="E63" s="2">
         <v>45183</v>
@@ -1924,19 +2312,25 @@
       <c r="F63">
         <v>1350</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64">
-        <v>760</v>
+      <c r="D64" t="s">
+        <v>10</v>
       </c>
       <c r="E64" s="2">
         <v>45184</v>
@@ -1944,19 +2338,25 @@
       <c r="F64">
         <v>536.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>760</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65">
-        <v>2506</v>
+      <c r="D65" t="s">
+        <v>10</v>
       </c>
       <c r="E65" s="2">
         <v>45187</v>
@@ -1964,19 +2364,25 @@
       <c r="F65">
         <v>2514.02</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>2506</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66">
-        <v>174543</v>
+      <c r="D66" t="s">
+        <v>10</v>
       </c>
       <c r="E66" s="2">
         <v>45187</v>
@@ -1984,19 +2390,25 @@
       <c r="F66">
         <v>14760</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>174543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67">
-        <v>495</v>
+      <c r="D67" t="s">
+        <v>10</v>
       </c>
       <c r="E67" s="2">
         <v>45187</v>
@@ -2004,19 +2416,25 @@
       <c r="F67">
         <v>3210.46</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>495</v>
+      </c>
+      <c r="K67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68">
-        <v>2145</v>
+      <c r="D68" t="s">
+        <v>10</v>
       </c>
       <c r="E68" s="2">
         <v>45188</v>
@@ -2024,19 +2442,25 @@
       <c r="F68">
         <v>37314.67</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>2145</v>
+      </c>
+      <c r="K68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69">
-        <v>45681</v>
+      <c r="D69" t="s">
+        <v>10</v>
       </c>
       <c r="E69" s="2">
         <v>45188</v>
@@ -2044,19 +2468,25 @@
       <c r="F69">
         <v>1920</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>45681</v>
+      </c>
+      <c r="K69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70">
-        <v>20</v>
+      <c r="D70" t="s">
+        <v>10</v>
       </c>
       <c r="E70" s="2">
         <v>45188</v>
@@ -2064,19 +2494,25 @@
       <c r="F70">
         <v>37383.71</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71">
-        <v>23</v>
+      <c r="D71" t="s">
+        <v>10</v>
       </c>
       <c r="E71" s="2">
         <v>45189</v>
@@ -2084,19 +2520,25 @@
       <c r="F71">
         <v>5197.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72">
-        <v>257</v>
+      <c r="D72" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="2">
         <v>45189</v>
@@ -2104,19 +2546,25 @@
       <c r="F72">
         <v>10679.35</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>257</v>
+      </c>
+      <c r="K72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73">
-        <v>7825</v>
+      <c r="D73" t="s">
+        <v>10</v>
       </c>
       <c r="E73" s="2">
         <v>45189</v>
@@ -2124,19 +2572,25 @@
       <c r="F73">
         <v>22840</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73">
+        <v>7825</v>
+      </c>
+      <c r="K73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74">
-        <v>9881</v>
+      <c r="D74" t="s">
+        <v>10</v>
       </c>
       <c r="E74" s="2">
         <v>45189</v>
@@ -2144,19 +2598,25 @@
       <c r="F74">
         <v>966</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <v>9881</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75">
-        <v>9882</v>
+      <c r="D75" t="s">
+        <v>10</v>
       </c>
       <c r="E75" s="2">
         <v>45189</v>
@@ -2164,19 +2624,25 @@
       <c r="F75">
         <v>897.26</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <v>9882</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76">
-        <v>71159</v>
+      <c r="D76" t="s">
+        <v>10</v>
       </c>
       <c r="E76" s="2">
         <v>45189</v>
@@ -2184,19 +2650,25 @@
       <c r="F76">
         <v>1077.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>71159</v>
+      </c>
+      <c r="K76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77">
-        <v>71160</v>
+      <c r="D77" t="s">
+        <v>10</v>
       </c>
       <c r="E77" s="2">
         <v>45189</v>
@@ -2204,19 +2676,25 @@
       <c r="F77">
         <v>2041.96</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>71160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78">
-        <v>71463</v>
+      <c r="D78" t="s">
+        <v>10</v>
       </c>
       <c r="E78" s="2">
         <v>45189</v>
@@ -2224,19 +2702,25 @@
       <c r="F78">
         <v>291.71</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
+        <v>71463</v>
+      </c>
+      <c r="K78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79">
-        <v>71464</v>
+      <c r="D79" t="s">
+        <v>10</v>
       </c>
       <c r="E79" s="2">
         <v>45189</v>
@@ -2244,19 +2728,25 @@
       <c r="F79">
         <v>21629.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79">
+        <v>71464</v>
+      </c>
+      <c r="K79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80">
-        <v>591006</v>
+      <c r="D80" t="s">
+        <v>10</v>
       </c>
       <c r="E80" s="2">
         <v>45189</v>
@@ -2264,19 +2754,25 @@
       <c r="F80">
         <v>3089.99</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <v>591006</v>
+      </c>
+      <c r="K80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81">
-        <v>18012</v>
+      <c r="D81" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="2">
         <v>45189</v>
@@ -2284,19 +2780,25 @@
       <c r="F81">
         <v>933.96</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81">
+        <v>18012</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82">
-        <v>45765</v>
+      <c r="D82" t="s">
+        <v>10</v>
       </c>
       <c r="E82" s="2">
         <v>45190</v>
@@ -2304,19 +2806,25 @@
       <c r="F82">
         <v>1278</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82">
+        <v>45765</v>
+      </c>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83">
-        <v>47700</v>
+      <c r="D83" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="2">
         <v>45190</v>
@@ -2324,19 +2832,25 @@
       <c r="F83">
         <v>29165</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <v>47700</v>
+      </c>
+      <c r="K83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84">
-        <v>174768</v>
+      <c r="D84" t="s">
+        <v>10</v>
       </c>
       <c r="E84" s="2">
         <v>45190</v>
@@ -2344,19 +2858,25 @@
       <c r="F84">
         <v>69707.07000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <v>174768</v>
+      </c>
+      <c r="K84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85">
-        <v>661651</v>
+      <c r="D85" t="s">
+        <v>10</v>
       </c>
       <c r="E85" s="2">
         <v>45190</v>
@@ -2364,19 +2884,25 @@
       <c r="F85">
         <v>8420.58</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <v>661651</v>
+      </c>
+      <c r="K85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86">
-        <v>753</v>
+      <c r="D86" t="s">
+        <v>10</v>
       </c>
       <c r="E86" s="2">
         <v>45191</v>
@@ -2384,19 +2910,25 @@
       <c r="F86">
         <v>77440.75999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <v>753</v>
+      </c>
+      <c r="K86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87">
-        <v>2504</v>
+      <c r="D87" t="s">
+        <v>10</v>
       </c>
       <c r="E87" s="2">
         <v>45194</v>
@@ -2404,19 +2936,25 @@
       <c r="F87">
         <v>520.53</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>2504</v>
+      </c>
+      <c r="K87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88">
-        <v>36036</v>
+      <c r="D88" t="s">
+        <v>10</v>
       </c>
       <c r="E88" s="2">
         <v>45194</v>
@@ -2424,19 +2962,25 @@
       <c r="F88">
         <v>14760</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88">
+        <v>36036</v>
+      </c>
+      <c r="K88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89">
-        <v>174824</v>
+      <c r="D89" t="s">
+        <v>10</v>
       </c>
       <c r="E89" s="2">
         <v>45194</v>
@@ -2444,19 +2988,25 @@
       <c r="F89">
         <v>1972.78</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <v>174824</v>
+      </c>
+      <c r="K89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90">
-        <v>1095439</v>
+      <c r="D90" t="s">
+        <v>10</v>
       </c>
       <c r="E90" s="2">
         <v>45194</v>
@@ -2464,19 +3014,25 @@
       <c r="F90">
         <v>46096.64</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90">
+        <v>1095439</v>
+      </c>
+      <c r="K90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91">
-        <v>18864</v>
+      <c r="D91" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>45194</v>
@@ -2484,19 +3040,25 @@
       <c r="F91">
         <v>1902.78</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91">
+        <v>18864</v>
+      </c>
+      <c r="K91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92">
-        <v>18865</v>
+      <c r="D92" t="s">
+        <v>10</v>
       </c>
       <c r="E92" s="2">
         <v>45195</v>
@@ -2504,19 +3066,25 @@
       <c r="F92">
         <v>4595.67</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>18865</v>
+      </c>
+      <c r="K92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93">
-        <v>19067</v>
+      <c r="D93" t="s">
+        <v>10</v>
       </c>
       <c r="E93" s="2">
         <v>45195</v>
@@ -2524,19 +3092,25 @@
       <c r="F93">
         <v>324</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93">
+        <v>19067</v>
+      </c>
+      <c r="K93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94">
-        <v>23379</v>
+      <c r="D94" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="2">
         <v>45195</v>
@@ -2544,19 +3118,25 @@
       <c r="F94">
         <v>1202.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94">
+        <v>23379</v>
+      </c>
+      <c r="K94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95">
-        <v>23380</v>
+      <c r="D95" t="s">
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <v>45195</v>
@@ -2564,19 +3144,25 @@
       <c r="F95">
         <v>13572.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95">
+        <v>23380</v>
+      </c>
+      <c r="K95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96">
-        <v>47972</v>
+      <c r="D96" t="s">
+        <v>10</v>
       </c>
       <c r="E96" s="2">
         <v>45195</v>
@@ -2584,19 +3170,25 @@
       <c r="F96">
         <v>27422.05</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96">
+        <v>47972</v>
+      </c>
+      <c r="K96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
+      <c r="D97" t="s">
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>45195</v>
@@ -2604,19 +3196,25 @@
       <c r="F97">
         <v>25073</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98">
-        <v>54</v>
+      <c r="D98" t="s">
+        <v>10</v>
       </c>
       <c r="E98" s="2">
         <v>45196</v>
@@ -2624,19 +3222,25 @@
       <c r="F98">
         <v>887.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <v>54</v>
+      </c>
+      <c r="K98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99">
-        <v>277</v>
+      <c r="D99" t="s">
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>45196</v>
@@ -2644,19 +3248,25 @@
       <c r="F99">
         <v>2796</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>277</v>
+      </c>
+      <c r="K99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100">
-        <v>522</v>
+      <c r="D100" t="s">
+        <v>10</v>
       </c>
       <c r="E100" s="2">
         <v>45196</v>
@@ -2664,19 +3274,25 @@
       <c r="F100">
         <v>9114.290000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>522</v>
+      </c>
+      <c r="K100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" t="s">
-        <v>79</v>
-      </c>
-      <c r="D101">
-        <v>174965</v>
+      <c r="D101" t="s">
+        <v>10</v>
       </c>
       <c r="E101" s="2">
         <v>45196</v>
@@ -2684,19 +3300,25 @@
       <c r="F101">
         <v>3684.56</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101">
+        <v>174965</v>
+      </c>
+      <c r="K101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102">
-        <v>55426</v>
+      <c r="D102" t="s">
+        <v>10</v>
       </c>
       <c r="E102" s="2">
         <v>45196</v>
@@ -2704,19 +3326,25 @@
       <c r="F102">
         <v>37658.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102">
+        <v>55426</v>
+      </c>
+      <c r="K102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103">
-        <v>55427</v>
+      <c r="D103" t="s">
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>45197</v>
@@ -2724,19 +3352,25 @@
       <c r="F103">
         <v>1104</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103">
+        <v>55427</v>
+      </c>
+      <c r="K103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104">
-        <v>175017</v>
+      <c r="D104" t="s">
+        <v>10</v>
       </c>
       <c r="E104" s="2">
         <v>45197</v>
@@ -2744,19 +3378,25 @@
       <c r="F104">
         <v>1983.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104">
+        <v>175017</v>
+      </c>
+      <c r="K104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105">
-        <v>208648</v>
+      <c r="D105" t="s">
+        <v>10</v>
       </c>
       <c r="E105" s="2">
         <v>45197</v>
@@ -2764,19 +3404,25 @@
       <c r="F105">
         <v>61282.85</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105">
+        <v>208648</v>
+      </c>
+      <c r="K105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106">
-        <v>1027215</v>
+      <c r="D106" t="s">
+        <v>10</v>
       </c>
       <c r="E106" s="2">
         <v>45198</v>
@@ -2784,19 +3430,25 @@
       <c r="F106">
         <v>22200</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106">
+        <v>1027215</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107">
-        <v>476</v>
+      <c r="D107" t="s">
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>45170</v>
@@ -2804,25 +3456,43 @@
       <c r="F107">
         <v>4439.82</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107">
+        <v>476</v>
+      </c>
+      <c r="K107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D108">
-        <v>457</v>
+      <c r="D108" t="s">
+        <v>10</v>
       </c>
       <c r="E108" s="2">
         <v>45183</v>
       </c>
       <c r="F108">
         <v>54502.08</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108">
+        <v>457</v>
+      </c>
+      <c r="K108" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2840,13 +3510,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2855,19 +3525,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2875,28 +3545,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>45163</v>
       </c>
       <c r="F2">
-        <v>583.9508999999999</v>
+        <v>583.95</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>953</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2904,10 +3574,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>45173</v>
@@ -2916,16 +3586,16 @@
         <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>1005</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2933,28 +3603,28 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>45173</v>
       </c>
       <c r="F4">
-        <v>10.8855</v>
+        <v>10.89</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1459</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2962,10 +3632,10 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>45174</v>
@@ -2974,16 +3644,16 @@
         <v>112.8</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>15516</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2991,28 +3661,28 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>45180</v>
       </c>
       <c r="F6">
-        <v>39.91725</v>
+        <v>39.92</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>2497</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3020,28 +3690,28 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>45187</v>
       </c>
       <c r="F7">
-        <v>37.7103</v>
+        <v>37.71</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>2506</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3049,10 +3719,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>45187</v>
@@ -3061,16 +3731,16 @@
         <v>221.4</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>174543</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3078,28 +3748,28 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>45188</v>
       </c>
       <c r="F9">
-        <v>559.7200499999999</v>
+        <v>559.72</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>2145</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3107,28 +3777,28 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2">
         <v>45189</v>
       </c>
       <c r="F10">
-        <v>14.0094</v>
+        <v>14.01</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>18012</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3136,10 +3806,10 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
         <v>45194</v>
@@ -3148,16 +3818,16 @@
         <v>7.81</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>2504</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3165,10 +3835,10 @@
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2">
         <v>45194</v>
@@ -3177,16 +3847,16 @@
         <v>221.4</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>36036</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3194,28 +3864,28 @@
         <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>45195</v>
       </c>
       <c r="F13">
-        <v>203.5875</v>
+        <v>203.59</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>23380</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3223,28 +3893,28 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
         <v>45195</v>
       </c>
       <c r="F14">
-        <v>411.33075</v>
+        <v>411.33</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>47972</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3252,28 +3922,28 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2">
         <v>45183</v>
       </c>
       <c r="F15">
-        <v>817.5312</v>
+        <v>817.53</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J15">
         <v>457</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3281,28 +3951,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>45163</v>
       </c>
       <c r="F16">
-        <v>1810.24779</v>
+        <v>1810.25</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>953</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3310,10 +3980,10 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2">
         <v>45174</v>
@@ -3322,16 +3992,16 @@
         <v>349.68</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>15516</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3339,10 +4009,10 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>45187</v>
@@ -3351,16 +4021,16 @@
         <v>686.34</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>174543</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3368,28 +4038,28 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2">
         <v>45188</v>
       </c>
       <c r="F19">
-        <v>1735.132155</v>
+        <v>1735.13</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J19">
         <v>2145</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3397,28 +4067,28 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2">
         <v>45189</v>
       </c>
       <c r="F20">
-        <v>43.42914</v>
+        <v>43.43</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>18012</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3426,10 +4096,10 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2">
         <v>45194</v>
@@ -3438,16 +4108,16 @@
         <v>686.34</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <v>36036</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3455,28 +4125,28 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>45195</v>
       </c>
       <c r="F22">
-        <v>631.12125</v>
+        <v>631.12</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J22">
         <v>23380</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3484,28 +4154,28 @@
         <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2">
         <v>45195</v>
       </c>
       <c r="F23">
-        <v>1275.125325</v>
+        <v>1275.13</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <v>47972</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3513,28 +4183,28 @@
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2">
         <v>45183</v>
       </c>
       <c r="F24">
-        <v>2534.34672</v>
+        <v>2534.35</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <v>457</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3542,28 +4212,28 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2">
         <v>45180</v>
       </c>
       <c r="F25">
-        <v>654.9092000000001</v>
+        <v>654.91</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <v>782</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3571,28 +4241,28 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>45181</v>
       </c>
       <c r="F26">
-        <v>4559.18505</v>
+        <v>4559.19</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <v>15941</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3600,10 +4270,10 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2">
         <v>45182</v>
@@ -3612,16 +4282,16 @@
         <v>764.5</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J27">
         <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3629,10 +4299,10 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2">
         <v>45182</v>
@@ -3641,16 +4311,16 @@
         <v>1794.32</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J28">
         <v>18799</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3658,10 +4328,10 @@
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2">
         <v>45187</v>
@@ -3670,16 +4340,16 @@
         <v>1623.6</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <v>174543</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3687,10 +4357,10 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2">
         <v>45189</v>
@@ -3699,16 +4369,16 @@
         <v>1507.44</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <v>7825</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3716,10 +4386,10 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2">
         <v>45194</v>
@@ -3728,16 +4398,16 @@
         <v>1623.6</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J31">
         <v>36036</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3745,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2">
         <v>45155</v>
@@ -3757,16 +4427,16 @@
         <v>32.02</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J32">
         <v>9874</v>
       </c>
       <c r="K32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3774,10 +4444,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2">
         <v>45166</v>
@@ -3786,16 +4456,16 @@
         <v>286.26</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <v>48842</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3803,10 +4473,10 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2">
         <v>45170</v>
@@ -3815,16 +4485,16 @@
         <v>32.02</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J34">
         <v>8313</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3832,28 +4502,28 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2">
         <v>45173</v>
       </c>
       <c r="F35">
-        <v>170.855</v>
+        <v>170.86</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <v>541</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3861,28 +4531,28 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2">
         <v>45175</v>
       </c>
       <c r="F36">
-        <v>24.717</v>
+        <v>24.72</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J36">
         <v>17188</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3890,28 +4560,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2">
         <v>45180</v>
       </c>
       <c r="F37">
-        <v>793.8284</v>
+        <v>793.83</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J37">
         <v>782</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3919,10 +4589,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2">
         <v>45180</v>
@@ -3931,16 +4601,16 @@
         <v>290</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <v>5111</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3948,28 +4618,28 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2">
         <v>45180</v>
       </c>
       <c r="F39">
-        <v>1226.3845</v>
+        <v>1226.38</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J39">
         <v>607719</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3977,28 +4647,28 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2">
         <v>45181</v>
       </c>
       <c r="F40">
-        <v>2605.2486</v>
+        <v>2605.25</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J40">
         <v>15941</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4006,10 +4676,10 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2">
         <v>45182</v>
@@ -4018,16 +4688,16 @@
         <v>1737.5</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <v>254</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4035,28 +4705,28 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2">
         <v>45182</v>
       </c>
       <c r="F42">
-        <v>1321.272162</v>
+        <v>1321.27</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J42">
         <v>18799</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4064,28 +4734,28 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2">
         <v>45183</v>
       </c>
       <c r="F43">
-        <v>37.6875</v>
+        <v>37.69</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J43">
         <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4093,28 +4763,28 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2">
         <v>45183</v>
       </c>
       <c r="F44">
-        <v>27.135</v>
+        <v>27.14</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4122,10 +4792,10 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2">
         <v>45187</v>
@@ -4134,16 +4804,16 @@
         <v>295.2</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <v>174543</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4151,28 +4821,28 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2">
         <v>45189</v>
       </c>
       <c r="F46">
-        <v>1110.024</v>
+        <v>1110.02</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>7825</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4180,10 +4850,10 @@
         <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2">
         <v>45194</v>
@@ -4192,16 +4862,16 @@
         <v>295.2</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J47">
         <v>36036</v>
       </c>
       <c r="K47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4209,10 +4879,10 @@
         <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2">
         <v>45195</v>
@@ -4221,16 +4891,16 @@
         <v>271.45</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J48">
         <v>23380</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4238,28 +4908,28 @@
         <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2">
         <v>45195</v>
       </c>
       <c r="F49">
-        <v>548.441</v>
+        <v>548.4400000000001</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J49">
         <v>47972</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4267,28 +4937,28 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2">
         <v>45196</v>
       </c>
       <c r="F50">
-        <v>17.83875</v>
+        <v>17.84</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J50">
         <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4296,10 +4966,10 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2">
         <v>45196</v>
@@ -4308,16 +4978,16 @@
         <v>55.92</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J51">
         <v>277</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4353,10 +5023,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4369,120 +5039,1226 @@
       <c r="A2" s="1">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>15941</v>
-      </c>
       <c r="E2" s="2">
         <v>45181</v>
       </c>
       <c r="F2">
         <v>653.12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>15941</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>18799</v>
-      </c>
       <c r="E3" s="2">
         <v>45182</v>
       </c>
       <c r="F3">
         <v>1359.33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>18799</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>174543</v>
-      </c>
       <c r="E4" s="2">
         <v>45187</v>
       </c>
       <c r="F4">
         <v>738</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>174543</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>7825</v>
-      </c>
       <c r="E5" s="2">
         <v>45189</v>
       </c>
       <c r="F5">
         <v>1142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>7825</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>36036</v>
-      </c>
       <c r="E6" s="2">
         <v>45194</v>
       </c>
       <c r="F6">
         <v>738</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>36036</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7">
-        <v>54</v>
-      </c>
       <c r="E7" s="2">
         <v>45196</v>
       </c>
       <c r="F7">
         <v>44.38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45173</v>
+      </c>
+      <c r="F2">
+        <v>1066.83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>9874</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45174</v>
+      </c>
+      <c r="F3">
+        <v>4913.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>953</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45174</v>
+      </c>
+      <c r="F4">
+        <v>4913.4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>48842</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45174</v>
+      </c>
+      <c r="F5">
+        <v>4946.08</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45177</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F7">
+        <v>4913.4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>813</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F8">
+        <v>4913.4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>1646</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F9">
+        <v>8091.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>2741</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F10">
+        <v>4913.4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>3360</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F11">
+        <v>4913.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>3367</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45180</v>
+      </c>
+      <c r="F12">
+        <v>4674</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>7555</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45181</v>
+      </c>
+      <c r="F13">
+        <v>4913.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>8313</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45181</v>
+      </c>
+      <c r="F14">
+        <v>4913.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>9411</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45181</v>
+      </c>
+      <c r="F15">
+        <v>4913.4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>9415</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45181</v>
+      </c>
+      <c r="F16">
+        <v>4913.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>47054</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45181</v>
+      </c>
+      <c r="F17">
+        <v>4913.4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>185799</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45182</v>
+      </c>
+      <c r="F18">
+        <v>1.7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>267385</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45183</v>
+      </c>
+      <c r="F19">
+        <v>203366.25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>284121</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45183</v>
+      </c>
+      <c r="F20">
+        <v>412.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>2392738</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F21">
+        <v>4776.6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>511</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F22">
+        <v>4776.6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>541</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F23">
+        <v>5933.89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>772</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F24">
+        <v>5864.4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>1005</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F25">
+        <v>5035.58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>1459</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F26">
+        <v>4776.6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>1819</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F27">
+        <v>4776.6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>3932</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45194</v>
+      </c>
+      <c r="F28">
+        <v>4776.6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>6684</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F29">
+        <v>16147.8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>178095</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45198</v>
+      </c>
+      <c r="F30">
+        <v>226751.08</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F31">
+        <v>4595.67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>244</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F32">
+        <v>12.8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>594</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F33">
+        <v>4776.6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>769</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F34">
+        <v>4776.6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>774</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F35">
+        <v>4776.6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>706</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F36">
+        <v>5328</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <v>1007</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F37">
+        <v>9089</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>15516</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F38">
+        <v>5107.2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>1611</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F39">
+        <v>4776.6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>17188</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45196</v>
+      </c>
+      <c r="F40">
+        <v>4776.6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>20893</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F41">
+        <v>1202.5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>1045824</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
